--- a/Check Sheets/Mappings.xlsx
+++ b/Check Sheets/Mappings.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54951D64-8E1C-4756-806D-EC4FA1B2C6BD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{774944FB-472D-4340-BA08-2E7FF9DBBF9C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CANTalonSRX" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
   <si>
     <t>Function</t>
   </si>
@@ -78,6 +78,21 @@
   </si>
   <si>
     <t>PCM</t>
+  </si>
+  <si>
+    <t>ArmLift</t>
+  </si>
+  <si>
+    <t>RobotLift1</t>
+  </si>
+  <si>
+    <t>BallIntake</t>
+  </si>
+  <si>
+    <t>RobotLift2</t>
+  </si>
+  <si>
+    <t>RobotLiftExtend</t>
   </si>
 </sst>
 </file>
@@ -395,16 +410,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="32.3984375" customWidth="1"/>
-    <col min="3" max="3" width="37.3984375" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -486,18 +501,43 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
       <c r="B10">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
       <c r="B11">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
       <c r="B12">
         <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
